--- a/problems.xlsx
+++ b/problems.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="211">
   <si>
     <t xml:space="preserve">Пусть T1 - множество чисел в римских цифрах, а T2 - множество чисел в арабских цифрах. A - отношение  над множествами T1 и T2.</t>
   </si>
@@ -634,16 +634,16 @@
     <t xml:space="preserve">Какие, например, функциональные зависимости можно вывести из минимальных по условию предыдущей задачи?</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMATE→HOTEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAYMENT-&gt;HOTEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(PAYMENT, HOTEL)-&gt;ANIMATE</t>
+    <t xml:space="preserve">PAYMENT→PAYMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMATE→ANIMATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(ANIMATE, PAYMENT)→(HOTEL, PAYMENT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANIMATE→(PAYMENT, HOTEL)</t>
   </si>
   <si>
     <t xml:space="preserve">Постройте диаграмму минимальных функциональных зависимостей для задачи 12.</t>
@@ -827,7 +827,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -960,15 +960,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -980,31 +972,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1080,15 +1064,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>63000</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>150480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>189360</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>165240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5835960" y="39378960"/>
+          <a:ext cx="8499960" cy="1824480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AV255"/>
+  <dimension ref="A2:AV248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J204" activeCellId="0" sqref="J204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A190" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O237" activeCellId="0" sqref="O237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1100,7 +1126,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="2.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.67"/>
@@ -3828,19 +3854,19 @@
       <c r="AJ161" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="AK161" s="33" t="s">
+      <c r="AK161" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="AL161" s="33" t="s">
+      <c r="AL161" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="AM161" s="33" t="s">
+      <c r="AM161" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="AN161" s="33" t="s">
+      <c r="AN161" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AO161" s="33" t="s">
+      <c r="AO161" s="28" t="s">
         <v>160</v>
       </c>
       <c r="AQ161" s="31" t="s">
@@ -3899,7 +3925,7 @@
       <c r="Y162" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="Z162" s="34" t="s">
+      <c r="Z162" s="33" t="s">
         <v>166</v>
       </c>
       <c r="AA162" s="22" t="s">
@@ -3922,19 +3948,19 @@
         <v>169</v>
       </c>
       <c r="AJ162" s="6"/>
-      <c r="AK162" s="35" t="s">
+      <c r="AK162" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AL162" s="35" t="s">
+      <c r="AL162" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AM162" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN162" s="35" t="s">
+      <c r="AM162" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN162" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AO162" s="35" t="s">
+      <c r="AO162" s="22" t="s">
         <v>169</v>
       </c>
       <c r="AQ162" s="6"/>
@@ -3950,7 +3976,7 @@
       <c r="AU162" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AV162" s="36" t="n">
+      <c r="AV162" s="34" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4003,7 +4029,7 @@
       <c r="Y163" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="Z163" s="34" t="s">
+      <c r="Z163" s="33" t="s">
         <v>166</v>
       </c>
       <c r="AA163" s="22" t="s">
@@ -4026,19 +4052,19 @@
         <v>167</v>
       </c>
       <c r="AJ163" s="6"/>
-      <c r="AK163" s="35" t="s">
+      <c r="AK163" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AL163" s="35" t="s">
+      <c r="AL163" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AM163" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN163" s="35" t="s">
+      <c r="AM163" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN163" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AO163" s="35" t="s">
+      <c r="AO163" s="22" t="s">
         <v>169</v>
       </c>
       <c r="AQ163" s="6"/>
@@ -4054,7 +4080,7 @@
       <c r="AU163" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AV163" s="36" t="n">
+      <c r="AV163" s="34" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -4086,7 +4112,7 @@
       <c r="Y164" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="Z164" s="34" t="s">
+      <c r="Z164" s="33" t="s">
         <v>166</v>
       </c>
       <c r="AA164" s="22" t="s">
@@ -4109,19 +4135,19 @@
         <v>169</v>
       </c>
       <c r="AJ164" s="6"/>
-      <c r="AK164" s="35" t="s">
+      <c r="AK164" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AL164" s="35" t="s">
+      <c r="AL164" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AM164" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN164" s="35" t="s">
+      <c r="AM164" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN164" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AO164" s="35" t="s">
+      <c r="AO164" s="22" t="s">
         <v>169</v>
       </c>
       <c r="AQ164" s="6"/>
@@ -4137,7 +4163,7 @@
       <c r="AU164" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="AV164" s="36" t="n">
+      <c r="AV164" s="34" t="n">
         <v>45047</v>
       </c>
     </row>
@@ -4169,7 +4195,7 @@
       <c r="Y165" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="Z165" s="34" t="s">
+      <c r="Z165" s="33" t="s">
         <v>166</v>
       </c>
       <c r="AA165" s="22" t="s">
@@ -4192,19 +4218,19 @@
         <v>167</v>
       </c>
       <c r="AJ165" s="6"/>
-      <c r="AK165" s="35" t="s">
+      <c r="AK165" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AL165" s="35" t="s">
+      <c r="AL165" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AM165" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN165" s="35" t="s">
+      <c r="AM165" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN165" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AO165" s="35" t="s">
+      <c r="AO165" s="22" t="s">
         <v>169</v>
       </c>
       <c r="AQ165" s="6"/>
@@ -4220,7 +4246,7 @@
       <c r="AU165" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="AV165" s="36" t="n">
+      <c r="AV165" s="34" t="n">
         <v>45627</v>
       </c>
     </row>
@@ -4258,7 +4284,7 @@
       <c r="Y166" s="22" t="n">
         <v>1</v>
       </c>
-      <c r="Z166" s="34" t="s">
+      <c r="Z166" s="33" t="s">
         <v>166</v>
       </c>
       <c r="AA166" s="22" t="s">
@@ -4281,19 +4307,19 @@
         <v>167</v>
       </c>
       <c r="AJ166" s="6"/>
-      <c r="AK166" s="35" t="s">
+      <c r="AK166" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AL166" s="35" t="s">
+      <c r="AL166" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AM166" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN166" s="35" t="s">
+      <c r="AM166" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN166" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AO166" s="35" t="s">
+      <c r="AO166" s="22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4322,7 +4348,7 @@
       <c r="R167" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="S167" s="37" t="n">
+      <c r="S167" s="35" t="n">
         <v>45627</v>
       </c>
       <c r="W167" s="22" t="s">
@@ -4357,19 +4383,19 @@
         <v>169</v>
       </c>
       <c r="AJ167" s="6"/>
-      <c r="AK167" s="35" t="s">
+      <c r="AK167" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="AL167" s="35" t="s">
+      <c r="AL167" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AM167" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN167" s="35" t="s">
+      <c r="AM167" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN167" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="AO167" s="35" t="s">
+      <c r="AO167" s="22" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4386,7 +4412,7 @@
       <c r="R168" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="S168" s="37" t="n">
+      <c r="S168" s="35" t="n">
         <v>45047</v>
       </c>
       <c r="W168" s="22" t="s">
@@ -4404,19 +4430,19 @@
       <c r="AA168" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AK168" s="35" t="s">
+      <c r="AK168" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="AL168" s="35" t="s">
+      <c r="AL168" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AM168" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN168" s="35" t="s">
+      <c r="AM168" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN168" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO168" s="35" t="s">
+      <c r="AO168" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4445,19 +4471,19 @@
       <c r="AA169" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AK169" s="35" t="s">
+      <c r="AK169" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AL169" s="35" t="s">
+      <c r="AL169" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AM169" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN169" s="35" t="s">
+      <c r="AM169" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN169" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO169" s="35" t="s">
+      <c r="AO169" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4486,19 +4512,19 @@
       <c r="AA170" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AK170" s="35" t="s">
+      <c r="AK170" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="AL170" s="35" t="s">
+      <c r="AL170" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="AM170" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN170" s="35" t="s">
+      <c r="AM170" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN170" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO170" s="35" t="s">
+      <c r="AO170" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4527,36 +4553,36 @@
       <c r="AA171" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="AK171" s="35" t="s">
+      <c r="AK171" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AL171" s="35" t="s">
+      <c r="AL171" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AM171" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN171" s="35" t="s">
+      <c r="AM171" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN171" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO171" s="35" t="s">
+      <c r="AO171" s="22" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AK172" s="35" t="s">
+      <c r="AK172" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="AL172" s="35" t="s">
+      <c r="AL172" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AM172" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN172" s="35" t="s">
+      <c r="AM172" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN172" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO172" s="35" t="s">
+      <c r="AO172" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4564,19 +4590,19 @@
       <c r="B173" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AK173" s="35" t="s">
+      <c r="AK173" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="AL173" s="35" t="s">
+      <c r="AL173" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="AM173" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN173" s="35" t="s">
+      <c r="AM173" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN173" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="AO173" s="35" t="s">
+      <c r="AO173" s="22" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4618,7 +4644,7 @@
       <c r="O178" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="P178" s="34" t="s">
+      <c r="P178" s="33" t="s">
         <v>188</v>
       </c>
       <c r="R178" s="13"/>
@@ -4628,7 +4654,7 @@
       <c r="T178" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="U178" s="34" t="s">
+      <c r="U178" s="33" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4870,33 +4896,33 @@
     </row>
     <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1"/>
-      <c r="F198" s="38" t="s">
+      <c r="F198" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="G198" s="39" t="s">
+      <c r="G198" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="H198" s="39"/>
-      <c r="I198" s="39"/>
-      <c r="J198" s="39"/>
+      <c r="H198" s="37"/>
+      <c r="I198" s="37"/>
+      <c r="J198" s="37"/>
     </row>
     <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1"/>
-      <c r="F199" s="38" t="s">
+      <c r="F199" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G199" s="39" t="s">
+      <c r="G199" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="H199" s="39"/>
-      <c r="I199" s="39"/>
-      <c r="J199" s="39"/>
+      <c r="H199" s="37"/>
+      <c r="I199" s="37"/>
+      <c r="J199" s="37"/>
     </row>
     <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1"/>
       <c r="F200" s="13"/>
       <c r="G200" s="13"/>
-      <c r="H200" s="40"/>
+      <c r="H200" s="13"/>
       <c r="I200" s="13"/>
     </row>
     <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,72 +4941,54 @@
       <c r="C208" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H208" s="1"/>
       <c r="J208" s="1"/>
-      <c r="R208" s="0" t="s">
-        <v>204</v>
-      </c>
+      <c r="R208" s="1"/>
     </row>
     <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1"/>
       <c r="C209" s="2"/>
-      <c r="H209" s="1"/>
       <c r="J209" s="1"/>
     </row>
     <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="0"/>
-      <c r="C210" s="0"/>
-      <c r="D210" s="0"/>
-      <c r="E210" s="0"/>
-      <c r="F210" s="0"/>
-      <c r="G210" s="0"/>
-      <c r="I210" s="0"/>
+      <c r="B210" s="1"/>
+      <c r="G210" s="13" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="0"/>
-      <c r="C211" s="0"/>
-      <c r="D211" s="0"/>
-      <c r="E211" s="0"/>
-      <c r="F211" s="41" t="s">
+      <c r="B211" s="1"/>
+      <c r="F211" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="G211" s="41"/>
-      <c r="H211" s="41"/>
-      <c r="I211" s="0"/>
+      <c r="G211" s="38"/>
+      <c r="H211" s="38"/>
     </row>
     <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="0"/>
-      <c r="C212" s="0"/>
-      <c r="D212" s="0"/>
-      <c r="E212" s="0"/>
-      <c r="F212" s="41" t="s">
+      <c r="B212" s="1"/>
+      <c r="F212" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G212" s="41"/>
-      <c r="H212" s="41"/>
-      <c r="I212" s="0"/>
+      <c r="G212" s="38"/>
+      <c r="H212" s="38"/>
     </row>
     <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="0"/>
-      <c r="C213" s="0"/>
-      <c r="D213" s="0"/>
-      <c r="E213" s="0"/>
-      <c r="F213" s="41" t="s">
+      <c r="B213" s="1"/>
+      <c r="F213" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="G213" s="41"/>
-      <c r="H213" s="41"/>
-      <c r="I213" s="0"/>
+      <c r="G213" s="38"/>
+      <c r="H213" s="38"/>
     </row>
     <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="0"/>
-      <c r="C214" s="0"/>
-      <c r="D214" s="0"/>
-      <c r="E214" s="0"/>
-      <c r="F214" s="40"/>
-      <c r="G214" s="40"/>
-      <c r="H214" s="40"/>
-      <c r="I214" s="0"/>
+      <c r="B214" s="1"/>
+      <c r="F214" s="38"/>
+      <c r="G214" s="38"/>
+      <c r="H214" s="38"/>
+    </row>
+    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F215" s="38"/>
+      <c r="G215" s="38"/>
+      <c r="H215" s="38"/>
     </row>
     <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="n">
@@ -4989,44 +4997,22 @@
       <c r="C218" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H218" s="1"/>
       <c r="J218" s="1"/>
-      <c r="P218" s="0" t="s">
-        <v>204</v>
-      </c>
+      <c r="P218" s="1"/>
     </row>
     <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1"/>
       <c r="C219" s="2"/>
-      <c r="H219" s="1"/>
       <c r="J219" s="1"/>
     </row>
     <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="0"/>
-      <c r="C220" s="0"/>
-      <c r="D220" s="0"/>
-      <c r="E220" s="0"/>
-      <c r="F220" s="0"/>
-      <c r="G220" s="0"/>
-      <c r="I220" s="0"/>
+      <c r="B220" s="1"/>
     </row>
     <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="0"/>
-      <c r="C221" s="0"/>
-      <c r="D221" s="0"/>
-      <c r="E221" s="0"/>
-      <c r="F221" s="0"/>
-      <c r="G221" s="0"/>
-      <c r="I221" s="0"/>
+      <c r="B221" s="1"/>
     </row>
     <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="0"/>
-      <c r="C222" s="0"/>
-      <c r="D222" s="0"/>
-      <c r="E222" s="0"/>
-      <c r="F222" s="0"/>
-      <c r="G222" s="0"/>
-      <c r="I222" s="0"/>
+      <c r="B222" s="1"/>
     </row>
     <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="n">
@@ -5035,30 +5021,26 @@
       <c r="C227" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H227" s="1"/>
       <c r="J227" s="1"/>
     </row>
     <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1"/>
       <c r="C228" s="2"/>
-      <c r="H228" s="1"/>
       <c r="J228" s="1"/>
     </row>
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B229" s="0"/>
-      <c r="C229" s="40"/>
-      <c r="D229" s="42" t="s">
+      <c r="B229" s="1"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E229" s="40"/>
-      <c r="F229" s="40"/>
-      <c r="G229" s="0"/>
-      <c r="I229" s="0"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
       <c r="J229" s="1"/>
     </row>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C230" s="13"/>
-      <c r="D230" s="43" t="s">
+      <c r="D230" s="39" t="s">
         <v>157</v>
       </c>
       <c r="E230" s="13"/>
@@ -5066,7 +5048,7 @@
     </row>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C231" s="13"/>
-      <c r="D231" s="43" t="s">
+      <c r="D231" s="39" t="s">
         <v>158</v>
       </c>
       <c r="E231" s="13"/>
@@ -5079,316 +5061,285 @@
       <c r="C234" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H234" s="1"/>
     </row>
     <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F237" s="33" t="s">
+      <c r="F237" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="G237" s="33" t="s">
+      <c r="G237" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="H237" s="33" t="s">
+      <c r="H237" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="I237" s="33" t="s">
+      <c r="I237" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="J237" s="33" t="s">
+      <c r="J237" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="K237" s="33" t="s">
+      <c r="K237" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L237" s="33" t="s">
+      <c r="L237" s="28" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F238" s="35" t="s">
+      <c r="F238" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="G238" s="35" t="n">
+      <c r="G238" s="22" t="n">
         <v>15000</v>
       </c>
-      <c r="H238" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" s="35" t="s">
+      <c r="H238" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I238" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J238" s="35" t="s">
+      <c r="J238" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K238" s="35" t="s">
+      <c r="K238" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L238" s="35" t="s">
+      <c r="L238" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F239" s="35" t="s">
+      <c r="F239" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G239" s="35" t="n">
+      <c r="G239" s="22" t="n">
         <v>30000</v>
       </c>
-      <c r="H239" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" s="35" t="s">
+      <c r="H239" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="J239" s="35" t="s">
+      <c r="J239" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K239" s="35" t="s">
+      <c r="K239" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L239" s="44" t="n">
+      <c r="L239" s="40" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F240" s="35" t="s">
+      <c r="F240" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="G240" s="35" t="n">
+      <c r="G240" s="22" t="n">
         <v>60000</v>
       </c>
-      <c r="H240" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" s="35" t="s">
+      <c r="H240" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I240" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J240" s="35" t="s">
+      <c r="J240" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K240" s="35" t="s">
+      <c r="K240" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L240" s="35" t="s">
+      <c r="L240" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F241" s="35" t="s">
+      <c r="F241" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G241" s="35" t="n">
+      <c r="G241" s="22" t="n">
         <v>17000</v>
       </c>
-      <c r="H241" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" s="35" t="s">
+      <c r="H241" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I241" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="J241" s="35" t="s">
+      <c r="J241" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K241" s="35" t="s">
+      <c r="K241" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L241" s="44" t="n">
+      <c r="L241" s="40" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F242" s="35" t="s">
+      <c r="F242" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G242" s="35" t="n">
+      <c r="G242" s="22" t="n">
         <v>17000</v>
       </c>
-      <c r="H242" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" s="35" t="s">
+      <c r="H242" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I242" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="J242" s="35" t="s">
+      <c r="J242" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K242" s="35" t="s">
+      <c r="K242" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L242" s="44" t="n">
+      <c r="L242" s="40" t="n">
         <v>45047</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F243" s="35" t="s">
+      <c r="F243" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="G243" s="35" t="n">
+      <c r="G243" s="22" t="n">
         <v>23000</v>
       </c>
-      <c r="H243" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" s="35" t="s">
+      <c r="H243" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I243" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J243" s="35" t="s">
+      <c r="J243" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="K243" s="35" t="s">
+      <c r="K243" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="L243" s="35" t="s">
+      <c r="L243" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F244" s="35" t="s">
+      <c r="F244" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G244" s="35" t="n">
+      <c r="G244" s="22" t="n">
         <v>25000</v>
       </c>
-      <c r="H244" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" s="35" t="s">
+      <c r="H244" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I244" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J244" s="35" t="s">
+      <c r="J244" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K244" s="35" t="s">
+      <c r="K244" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L244" s="35" t="s">
+      <c r="L244" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F245" s="35" t="s">
+      <c r="F245" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="G245" s="35" t="n">
+      <c r="G245" s="22" t="n">
         <v>32000</v>
       </c>
-      <c r="H245" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" s="35" t="s">
+      <c r="H245" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I245" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="J245" s="35" t="s">
+      <c r="J245" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K245" s="35" t="s">
+      <c r="K245" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L245" s="35" t="s">
+      <c r="L245" s="22" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F246" s="35" t="s">
+      <c r="F246" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="G246" s="35" t="n">
+      <c r="G246" s="22" t="n">
         <v>16000</v>
       </c>
-      <c r="H246" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" s="35" t="s">
+      <c r="H246" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I246" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="J246" s="35" t="s">
+      <c r="J246" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K246" s="35" t="s">
+      <c r="K246" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L246" s="44" t="n">
+      <c r="L246" s="40" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F247" s="35" t="s">
+      <c r="F247" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="G247" s="35" t="n">
+      <c r="G247" s="22" t="n">
         <v>20000</v>
       </c>
-      <c r="H247" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" s="35" t="s">
+      <c r="H247" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I247" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="J247" s="35" t="s">
+      <c r="J247" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K247" s="35" t="s">
+      <c r="K247" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L247" s="44" t="n">
+      <c r="L247" s="40" t="n">
         <v>45627</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F248" s="35" t="s">
+      <c r="F248" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="G248" s="35" t="n">
+      <c r="G248" s="22" t="n">
         <v>40000</v>
       </c>
-      <c r="H248" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" s="35" t="s">
+      <c r="H248" s="22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I248" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="J248" s="35" t="s">
+      <c r="J248" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="K248" s="35" t="s">
+      <c r="K248" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="L248" s="44" t="n">
+      <c r="L248" s="40" t="n">
         <v>45047</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F250" s="0"/>
-      <c r="G250" s="0"/>
-      <c r="I250" s="0"/>
-    </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F251" s="0"/>
-      <c r="G251" s="0"/>
-      <c r="I251" s="0"/>
-    </row>
-    <row r="252" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F252" s="0"/>
-      <c r="G252" s="0"/>
-      <c r="I252" s="0"/>
-    </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F253" s="0"/>
-      <c r="G253" s="0"/>
-      <c r="I253" s="0"/>
-    </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F254" s="0"/>
-      <c r="G254" s="0"/>
-      <c r="I254" s="0"/>
-    </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F255" s="0"/>
-      <c r="G255" s="0"/>
-      <c r="I255" s="0"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="AC73:AC75"/>
     <mergeCell ref="AM73:AN73"/>
     <mergeCell ref="AM74:AM75"/>
@@ -5401,6 +5352,8 @@
     <mergeCell ref="F211:H211"/>
     <mergeCell ref="F212:H212"/>
     <mergeCell ref="F213:H213"/>
+    <mergeCell ref="F214:H214"/>
+    <mergeCell ref="F215:H215"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5409,5 +5362,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>